--- a/酒.xlsx
+++ b/酒.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>老贵董酒</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>130刚需，100内好价</t>
-  </si>
-  <si>
-    <t>习酒1 金质</t>
   </si>
   <si>
     <t>160刚需 100内很好</t>
@@ -180,28 +177,6 @@
   </si>
   <si>
     <t>紫砂郎</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>郎牌特曲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t6</t>
@@ -423,6 +398,41 @@
   </si>
   <si>
     <t>是30年，陈酿。比花津好喝</t>
+  </si>
+  <si>
+    <t>60-70好价</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郎牌特曲</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -563,14 +573,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -866,45 +876,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>56</v>
+      <c r="A1" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -912,22 +922,22 @@
         <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>57</v>
+      <c r="A6" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -936,8 +946,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>58</v>
+      <c r="A8" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
@@ -950,43 +960,43 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
@@ -995,48 +1005,48 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>59</v>
+      <c r="A14" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3">
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14" t="s">
-        <v>77</v>
+      <c r="A15" s="15"/>
+      <c r="B15" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="C15" s="3">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1048,11 +1058,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>60</v>
+      <c r="A19" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4">
         <v>90</v>
@@ -1060,9 +1070,9 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4">
         <v>132</v>
@@ -1070,19 +1080,19 @@
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4">
         <v>80</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="9" t="s">
-        <v>49</v>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="C22" s="4">
         <v>40</v>
@@ -1090,7 +1100,7 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1102,11 +1112,11 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>61</v>
+      <c r="A24" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="4">
         <v>50</v>
@@ -1114,21 +1124,21 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="4">
         <v>19</v>
@@ -1136,339 +1146,351 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4">
         <v>80</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="4">
+        <v>120</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="4">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="4">
-        <v>100</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="4">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="4">
+        <v>150</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="3">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="4">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="3">
+        <v>30</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3">
+        <v>199</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="3">
+        <v>80</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="4">
-        <v>45</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="4">
-        <v>150</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B38" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="3">
         <v>30</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="4">
-        <v>30</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3">
-        <v>30</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="3">
-        <v>199</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="3">
-        <v>80</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="3">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
       <c r="B41" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C41" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
       <c r="B42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="1" t="s">
+      <c r="C44" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="3">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="15"/>
+      <c r="B49" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="15"/>
+      <c r="B50" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
+      <c r="B51" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="3">
+        <v>130</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="15"/>
+      <c r="B55" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="3">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="3">
-        <v>100</v>
-      </c>
-      <c r="D44">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="3">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="3">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="3">
-        <v>130</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="15" t="s">
+      <c r="D58" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="15" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="A24:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
